--- a/Crypto Base/data.xlsx
+++ b/Crypto Base/data.xlsx
@@ -8,24 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RESTAPI\Crypto Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCF9977-8F44-4151-9768-FDAD0B09EDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FBE2E8-3060-489D-BD96-151FF8CA2ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26640" windowHeight="14370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Applications" sheetId="1" r:id="rId1"/>
+    <sheet name="UUID87957819" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="123">
+  <si>
+    <t>CIN</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>CIN</t>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Demande</t>
   </si>
   <si>
     <t>Description</t>
@@ -34,10 +41,355 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Demande</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Starting Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ending Date </t>
+  </si>
+  <si>
+    <t>Hash</t>
+  </si>
+  <si>
+    <t>b88c081bc33dfbd9289d98ac656fee63.3ebb83115893e297ef394d4e534a30ea349aca011312da3191fd8c3894f39ed1</t>
+  </si>
+  <si>
+    <t>b88c081bc33dfbd9289d98ac656fee63.68261176ff0f969619b10ac19a9cafc187263c56dfddf47058cd19c2eb04131b</t>
+  </si>
+  <si>
+    <t>b88c081bc33dfbd9289d98ac656fee63.ad6ef3325574279f36b44f92bee94ee1fdc637936cec2fdff26d52115b236bcc</t>
+  </si>
+  <si>
+    <t>b88c081bc33dfbd9289d98ac656fee63.53188aa406ef34f11d800d2f9a18adb16d2065cf53607aafb7dfea4326bc0570</t>
+  </si>
+  <si>
+    <t>b88c081bc33dfbd9289d98ac656fee63.b4333eda21a868e7e9a03f231b77b1a0</t>
+  </si>
+  <si>
+    <t>b88c081bc33dfbd9289d98ac656fee63.79e334915d464532d7387b20b64edd36b216f071721e296eee094d933363dacd</t>
+  </si>
+  <si>
+    <t>b88c081bc33dfbd9289d98ac656fee63.44465351a5238167b3d5b2c4e2d4094a6f08ee9581f0b6ec3d1eea4b49ef54f3</t>
+  </si>
+  <si>
+    <t>b88c081bc33dfbd9289d98ac656fee63.44465351a5238167b3d5b2c4e2d4094a6f08ee9581f0b6ec3d1eea4b49ef54f4</t>
+  </si>
+  <si>
+    <t>b88c081bc33dfbd9289d98ac656fee63.44465351a5238167b3d5b2c4e2d4094a6f08ee9581f0b6ec3d1eea4b49ef54f5</t>
+  </si>
+  <si>
+    <t>bbfb05689754241a41542f5e407d2026</t>
+  </si>
+  <si>
+    <t>50347358ce77645369dc7bc362cf4d85.b143e44ab641bedbb446f2be905e56d69cb02a596348e3210592d33405b735bf</t>
+  </si>
+  <si>
+    <t>50347358ce77645369dc7bc362cf4d85.a93448e493e51ab52d8df05a0a7245072420deb7a08c33b051901326dd66f115</t>
+  </si>
+  <si>
+    <t>50347358ce77645369dc7bc362cf4d85.4fa1549c77e204a5a9cd9d7c58bae99d822002c462efdf6781cb30b4a835c6a9</t>
+  </si>
+  <si>
+    <t>50347358ce77645369dc7bc362cf4d85.b5fc73f1dcc25aac5ff522f2024db72b081af3d3e8a0f1641311b1a3dca0bd66</t>
+  </si>
+  <si>
+    <t>50347358ce77645369dc7bc362cf4d85.920be0e96e86105b6d4381afc1612151</t>
+  </si>
+  <si>
+    <t>50347358ce77645369dc7bc362cf4d85.b40212d834df54b2c499a826e99a4cae57d63c18b9f7ea768b1ee06ae4026012</t>
+  </si>
+  <si>
+    <t>50347358ce77645369dc7bc362cf4d85.efaf8f20bf9321e7bc1d83d2a4eebebde2ccc1c58ae9cb30928a71c0cd6cd7d2</t>
+  </si>
+  <si>
+    <t>50347358ce77645369dc7bc362cf4d85.efaf8f20bf9321e7bc1d83d2a4eebebde2ccc1c58ae9cb30928a71c0cd6cd7d3</t>
+  </si>
+  <si>
+    <t>50347358ce77645369dc7bc362cf4d85.efaf8f20bf9321e7bc1d83d2a4eebebde2ccc1c58ae9cb30928a71c0cd6cd7d4</t>
+  </si>
+  <si>
+    <t>bbfb05689754241a41542f5e407d2027</t>
+  </si>
+  <si>
+    <t>3142737890a48cf91a82f919deb768cf.324ada95586eea6d1baec12bfd77df953a3ef6567aaad9db899cb30b8454f66b</t>
+  </si>
+  <si>
+    <t>3142737890a48cf91a82f919deb768cf.36c66cdd9de29536444c4c85ff19a9c0ad4162c0c46d1ac31e0233c59e2505df</t>
+  </si>
+  <si>
+    <t>3142737890a48cf91a82f919deb768cf.22736dacb336049942e9a2f2aa79bdd51693098049190816766401b148638b10</t>
+  </si>
+  <si>
+    <t>3142737890a48cf91a82f919deb768cf.d7218489baa12e67b53ca0936c7f35d32e5804363e25f26725d8135c1ee89a95</t>
+  </si>
+  <si>
+    <t>3142737890a48cf91a82f919deb768cf.c747273a04567f0df14dbf6c62ba1020</t>
+  </si>
+  <si>
+    <t>3142737890a48cf91a82f919deb768cf.28b884749b9ede73043a7681a6e159818688ef89b0a91b20efd51232b6f0173f</t>
+  </si>
+  <si>
+    <t>3142737890a48cf91a82f919deb768cf.206dc26d2bfc1cc5894e4cfda0b89fe327bb6d6920957054619e2e201a05844c</t>
+  </si>
+  <si>
+    <t>bbfb05689754241a41542f5e407d2028</t>
+  </si>
+  <si>
+    <t>4a8eb10a6c784d80a11bcdf165fb0d4f.ca7dc077a6625cc56ea6019ca6a2dc8f0ece26b416416753216cd9a1a42a7558</t>
+  </si>
+  <si>
+    <t>4a8eb10a6c784d80a11bcdf165fb0d4f.9b7f1c9d0f992007e9f0159fc73f3dd077360289f2e212d05ba9a934d1c99e25</t>
+  </si>
+  <si>
+    <t>4a8eb10a6c784d80a11bcdf165fb0d4f.fe830525f1b1c2e30de310e77783aef3b109442abde909579070c9a1531ee47b</t>
+  </si>
+  <si>
+    <t>4a8eb10a6c784d80a11bcdf165fb0d4f.9f87f653896fe1331219b69815ef59a808886e769d7572e28eeb515ecdf07cd6</t>
+  </si>
+  <si>
+    <t>4a8eb10a6c784d80a11bcdf165fb0d4f.0f1141b9beea5489a07f8613c51750dc</t>
+  </si>
+  <si>
+    <t>4a8eb10a6c784d80a11bcdf165fb0d4f.f9a7f8038d1da7196ae825efe0738ba61cd2a960b75cf77b206271da652d5db9</t>
+  </si>
+  <si>
+    <t>4a8eb10a6c784d80a11bcdf165fb0d4f.403b35db3408f98f518cebffdcac09418a6f4b00e8d9dee5bf0d7c505dc7f021</t>
+  </si>
+  <si>
+    <t>4a8eb10a6c784d80a11bcdf165fb0d4f.403b35db3408f98f518cebffdcac09418a6f4b00e8d9dee5bf0d7c505dc7f022</t>
+  </si>
+  <si>
+    <t>4a8eb10a6c784d80a11bcdf165fb0d4f.403b35db3408f98f518cebffdcac09418a6f4b00e8d9dee5bf0d7c505dc7f023</t>
+  </si>
+  <si>
+    <t>bbfb05689754241a41542f5e407d2029</t>
+  </si>
+  <si>
+    <t>5e6d31cbd46df30ec40eab6763e2315b.11789e2570f9b6b58ee19f8b5d5a53f6713c5918821aa3bfdf164320d6c4a92c</t>
+  </si>
+  <si>
+    <t>5e6d31cbd46df30ec40eab6763e2315b.038f069ea08ae5baa24e15e55156cb9b3a7fb1afcb7646d4c23788ade18516cd</t>
+  </si>
+  <si>
+    <t>5e6d31cbd46df30ec40eab6763e2315b.ba72234a999dfc7f9a99be1edb05cde6c8498fdd66d7ba66d329f48d972c2b6a</t>
+  </si>
+  <si>
+    <t>5e6d31cbd46df30ec40eab6763e2315b.807dc3d6f0f470c156dbd71cc73d814d72a42bf73b198c3cadd5fe80ec4fd5b9</t>
+  </si>
+  <si>
+    <t>5e6d31cbd46df30ec40eab6763e2315b.7d7526fdbe2072e48c75a9e25a3caa6c</t>
+  </si>
+  <si>
+    <t>5e6d31cbd46df30ec40eab6763e2315b.fa47cd0865467ea306c8aac4d372a76874b56e9d37c429b39e917d5084446a4b</t>
+  </si>
+  <si>
+    <t>5e6d31cbd46df30ec40eab6763e2315b.044f752eec636e23d624192cb8e3536eb4273456730ec64186963a659d0ca22e</t>
+  </si>
+  <si>
+    <t>bbfb05689754241a41542f5e407d2030</t>
+  </si>
+  <si>
+    <t>5e6d31cbd46df30ec40eab6763e2315b.900ca206077084e6df03fc9e25e53dbc2983a9667ab4b62983b17062f0194d4a</t>
+  </si>
+  <si>
+    <t>bbfb05689754241a41542f5e407d2031</t>
+  </si>
+  <si>
+    <t>5e6d31cbd46df30ec40eab6763e2315b.c1a10fc401d0375b26167d98eac94b952b65838f7c047f489f87337f57dbe3bf</t>
+  </si>
+  <si>
+    <t>bbfb05689754241a41542f5e407d2032</t>
+  </si>
+  <si>
+    <t>bbfb05689754241a41542f5e407d2033</t>
+  </si>
+  <si>
+    <t>a5126ed28b3a3432b6ca0c73ae5ec6c8.26b3d126bc813e00844f84d67093438415023b838d0a2a9ecbef216b94598ae0</t>
+  </si>
+  <si>
+    <t>a5126ed28b3a3432b6ca0c73ae5ec6c8.972455dc6c76368bac3dc2c3b06213ee9319e38b36fef1c818de0088ce47a44e</t>
+  </si>
+  <si>
+    <t>a5126ed28b3a3432b6ca0c73ae5ec6c8.7929c77685602779a7b81270d738bd9b5a281dc4cafeed3f1c92aae7c97ebaec</t>
+  </si>
+  <si>
+    <t>a5126ed28b3a3432b6ca0c73ae5ec6c8.cc5cf33ae637c5af30e395f03c97829c7f5c153b0dce1b8c19f4211d18e4e0a7</t>
+  </si>
+  <si>
+    <t>a5126ed28b3a3432b6ca0c73ae5ec6c8.c7cd93be91684785ed8a7036473d12c3</t>
+  </si>
+  <si>
+    <t>a5126ed28b3a3432b6ca0c73ae5ec6c8.c7ce39c7f15dcc5cb9fc2bb9a360d699c0b21c8bfdb0e4b8dfe991d88b54ba30</t>
+  </si>
+  <si>
+    <t>a5126ed28b3a3432b6ca0c73ae5ec6c8.8310e37b5600421a73f29b71ffe085aca5e6d58d23c2981a85c1c45eb6083c6e</t>
+  </si>
+  <si>
+    <t>1a70cb9bec247e41ec6f1635236f17ab</t>
+  </si>
+  <si>
+    <t>f9d8f132c535d8060ddb0bacc4a4d8f1.a6742f85e3a3c0dade4c4adc86a5f0253c6d1cb80e4d822e6413b05fb3e93fa8</t>
+  </si>
+  <si>
+    <t>f9d8f132c535d8060ddb0bacc4a4d8f1.b047c4e0b610121248e339a3a53f7fcdcd68fea1bc496973e7b42dc4c5be063d</t>
+  </si>
+  <si>
+    <t>f9d8f132c535d8060ddb0bacc4a4d8f1.99096abc9ad2a8d00cc33f0fd477150f1a3450ac3dccc37721dbab3133320ea7</t>
+  </si>
+  <si>
+    <t>f9d8f132c535d8060ddb0bacc4a4d8f1.bdb8d4559416479167613ca74ce9564a5bbf9deef90e0ba4221f7143aa92c004</t>
+  </si>
+  <si>
+    <t>f9d8f132c535d8060ddb0bacc4a4d8f1.54b3b52f0ec75b247b2d3d014a6cde18</t>
+  </si>
+  <si>
+    <t>f9d8f132c535d8060ddb0bacc4a4d8f1.d0a2d7b1d2b61012d2e37dda30aa08e7da83cf06c9d1d6f6c01eeda82f6f0a85</t>
+  </si>
+  <si>
+    <t>f9d8f132c535d8060ddb0bacc4a4d8f1.4e60d43357732bd3846d1f23fe6636bff33d3a6fcafc52162db48fac1a98aa6c</t>
+  </si>
+  <si>
+    <t>f9d8f132c535d8060ddb0bacc4a4d8f1.ec18e6d46b51495ccded5b3ceb0db93ac5e71b5beb7fc00770b7d64f6d82fac3</t>
+  </si>
+  <si>
+    <t>4ea5c508a6566e76240543f8feb06fd457777be39549c4016436afda65d2330e</t>
+  </si>
+  <si>
+    <t>be2fd457f7bf22137ec6afd305820215.5349119812818ab173a91c73b6317d0ba867a7866f219e7c9d84ae49bda60f6f</t>
+  </si>
+  <si>
+    <t>be2fd457f7bf22137ec6afd305820215.4392bab887eba009962ea58897088d3a90032bbc67fb4f18feefab880a0cf09c</t>
+  </si>
+  <si>
+    <t>be2fd457f7bf22137ec6afd305820215.830445e0340b525245a50b5240b39dd1fac86b6e6fa978efe47a6c1c8c106f38</t>
+  </si>
+  <si>
+    <t>be2fd457f7bf22137ec6afd305820215.96fa194917dd29109593bb72de95706465be2a0e3edce68dbec53e4b40af3aca</t>
+  </si>
+  <si>
+    <t>be2fd457f7bf22137ec6afd305820215.f8282fac95a70111c4516adbf7928a2a</t>
+  </si>
+  <si>
+    <t>be2fd457f7bf22137ec6afd305820215.4d50ee900c55471e97a07571e3f01dbbe2ca050da2f90bdf0105ffa438f365de</t>
+  </si>
+  <si>
+    <t>be2fd457f7bf22137ec6afd305820215.e67a8676aa1a5db656db05373d0c617f5c0deecdc986ac7b83d6bccce9cd90eb</t>
+  </si>
+  <si>
+    <t>6271ac503c5af145ac348f3ee8d8f8ac.3f275247e3e9efbcb6fef51442362d5f32b46f7823589ebe67a5713cdd2fff69</t>
+  </si>
+  <si>
+    <t>6271ac503c5af145ac348f3ee8d8f8ac.12ad7d453ad750ed2b9f5866f33f59d052d53cb36db6bd9e0da97007bc53d15f</t>
+  </si>
+  <si>
+    <t>6271ac503c5af145ac348f3ee8d8f8ac.c5e19db63fc82a6f47ec7fd00d77b564b697993dd3e4882eae96c7d90e93bdbd</t>
+  </si>
+  <si>
+    <t>6271ac503c5af145ac348f3ee8d8f8ac.1032bfecbc30cee0018401147e169e2761cebf72e2def4e1c0d519805ff77061</t>
+  </si>
+  <si>
+    <t>6271ac503c5af145ac348f3ee8d8f8ac.998e66737847401175e24ba14bcb510b</t>
+  </si>
+  <si>
+    <t>6271ac503c5af145ac348f3ee8d8f8ac.f52aecbbf62d84e6ccf03f28f71928d33f65f5aaf088868e6c719234427baafd</t>
+  </si>
+  <si>
+    <t>6271ac503c5af145ac348f3ee8d8f8ac.0727b8b39b321d2f5549536ec6beae047cd6faba6964ab2ac46baa5dce4143ec</t>
+  </si>
+  <si>
+    <t>df1a2f86a6eaad389d7f390636d6da11.370b874c994f74e94372ef9145621e4af1beab167c2e13fbe165f4e7f2f63a27</t>
+  </si>
+  <si>
+    <t>df1a2f86a6eaad389d7f390636d6da11.4654abd431a197953cacc79358967acaab1d68da6e4d67686ca813468ee5a9ab</t>
+  </si>
+  <si>
+    <t>df1a2f86a6eaad389d7f390636d6da11.420360dbf94848eae7ecd5c860732e1e6ce1462c63daabeda023fd08a34a6943</t>
+  </si>
+  <si>
+    <t>df1a2f86a6eaad389d7f390636d6da11.4a306db4712c2a5d96c5928e595f08005069ff5878e28a6f98dac1ff8c627000</t>
+  </si>
+  <si>
+    <t>df1a2f86a6eaad389d7f390636d6da11.bb7bde2540d3408f66989d9c4e243980</t>
+  </si>
+  <si>
+    <t>df1a2f86a6eaad389d7f390636d6da11.fdf06d603fb06a755ffda596127d38b779d3f6209c8143179d59f1c5904d7d38</t>
+  </si>
+  <si>
+    <t>df1a2f86a6eaad389d7f390636d6da11.9f8d60ff0e95680b254de1a8a27af6110d8854e6d80c085fba5f190931defb1b</t>
+  </si>
+  <si>
+    <t>a9bf1f75441debe29f961ff05726cc13.c2259e613f8a007d8c94c87ab2a5c8b69986cad17b9868243f840bcfdc3b2c1a</t>
+  </si>
+  <si>
+    <t>a9bf1f75441debe29f961ff05726cc13.bf9c356ce47dd3955f0e8a8736db764910cab0593535483281e92a84b1bfd6be</t>
+  </si>
+  <si>
+    <t>a9bf1f75441debe29f961ff05726cc13.2de747d180205b8e971806b4f36f9ccf901598ddda49bfd1dc16b54bd2bd5f50</t>
+  </si>
+  <si>
+    <t>a9bf1f75441debe29f961ff05726cc13.701610ccbb290ee5e3a34d0c6e888dc27ac9d49dbe9705d391721197452c13bc</t>
+  </si>
+  <si>
+    <t>a9bf1f75441debe29f961ff05726cc13.bdb73c21dea54f40fb8dfb4dde727968b93e9716e294d101f5c333f1df9d190a77fe500b7345fd854de2824bcf844e27</t>
+  </si>
+  <si>
+    <t>a9bf1f75441debe29f961ff05726cc13.4f874b9aafdac914e30b51fda45aa71e</t>
+  </si>
+  <si>
+    <t>a9bf1f75441debe29f961ff05726cc13.2c793689f5314b31b096333b942433bb92b6f594a0d94f4bb513575db0da5685</t>
+  </si>
+  <si>
+    <t>a9bf1f75441debe29f961ff05726cc13.46e591021039d616e9d94b2f3deb9043e808efbc2c96cb1603ce01b62ef28bfc</t>
+  </si>
+  <si>
+    <t>76adbff4f2897a773cb663a8c9c28100.915c0c948b9b726049abbdcef9626a527366d190a5918e01bf2f13644e8d24e8</t>
+  </si>
+  <si>
+    <t>76adbff4f2897a773cb663a8c9c28100.626ab2166b1b1dcc310487c3b439b83e5bed3ba957d045c6cca72c760398a292</t>
+  </si>
+  <si>
+    <t>76adbff4f2897a773cb663a8c9c28100.6d8556a34b75d12e14139ac617f499ffcf2f64ff3add95c39ade8cd9ea3bb4f8</t>
+  </si>
+  <si>
+    <t>76adbff4f2897a773cb663a8c9c28100.2ce760d7561135d8f11e4dcc2777a91e</t>
+  </si>
+  <si>
+    <t>76adbff4f2897a773cb663a8c9c28100.e53482296eb4998655418d21da4755dcd2af76020be8b6fb2c8e20bcb051145ce152bac459c96bbd7d29f3313254b5db</t>
+  </si>
+  <si>
+    <t>76adbff4f2897a773cb663a8c9c28100.adce69c21f8c1befa350205243b747c23208e6ad495532248f6e190ae070b59e</t>
+  </si>
+  <si>
+    <t>76adbff4f2897a773cb663a8c9c28100.7fef15d6537d0cb18881161b8a7db24bb90141133195f9173dcb2506e014256c</t>
+  </si>
+  <si>
+    <t>7e698ed0542d6a3e5089a98b6604e4b6.58fc51296cfefff7f6a75ebbdfb72cad5e6a69201d905ccbee1d9cdb250f20d6</t>
+  </si>
+  <si>
+    <t>7e698ed0542d6a3e5089a98b6604e4b6.d6e99882f5321d06c28bc6f669106751ad3190142c51b767449a91434b4b0b80</t>
+  </si>
+  <si>
+    <t>7e698ed0542d6a3e5089a98b6604e4b6.0517f1548bd19cb9f6f9267dcd1222aaf6a3454ea4c90bb0ec918799d55b4a13</t>
+  </si>
+  <si>
+    <t>7e698ed0542d6a3e5089a98b6604e4b6.d444eab81be978168fe4bd0d5d327db3</t>
+  </si>
+  <si>
+    <t>7e698ed0542d6a3e5089a98b6604e4b6.b74c924448efcc4e0d8605c6b36afa8c4f3ef8af5e0432cbbbd5e9ccf2cf402b3685bdf59bdc508dc1ee23f5a53a7249</t>
+  </si>
+  <si>
+    <t>7e698ed0542d6a3e5089a98b6604e4b6.354e48704b746e5d9b45987c76bd8ccce7acadddfe9084e7ddc6a5afc8d7060a</t>
+  </si>
+  <si>
+    <t>7e698ed0542d6a3e5089a98b6604e4b6.59bdd6559d2314ad9e11477c85d045c70cd136f0035b2e99783a76514fd7df2d</t>
+  </si>
+  <si>
+    <t>83270250453379f3c2a8afcaa42eae3af7ae12ff658871c83740ab7b3069d9cf</t>
+  </si>
+  <si>
+    <t>f51fedf8e508474180c8322cef1338eeee97bd63e8fe82ba04b93c1adee3260a</t>
   </si>
 </sst>
 </file>
@@ -414,47 +766,1250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="13.796875" customWidth="1"/>
-    <col min="5" max="5" width="14.8984375" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3"/>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B3:D3 E2:G2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J24" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:J14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>